--- a/data/hotels_by_city/Houston/Houston_shard_161.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_161.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107993-Reviews-Crossland_Economy_Studios_Houston_West_Oaks-Houston_Texas.html</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Crossland-Economy-Studios-Houston-West-Oaks.h104164.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,84 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107993-r434469653-Crossland_Economy_Studios_Houston_West_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107993</t>
+  </si>
+  <si>
+    <t>434469653</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>dirty not clean</t>
+  </si>
+  <si>
+    <t>I am not picky, but if there is trash left in cabinets and dead roaches as well, that is just disgusting, why have a maid if they don't do their job? The first night of my stay I was poked in my foot by what appeared to be a wire spring from the mattress, it was a miracle I got it out myself. If the room was actually cleaned, this would not have happened! When I finally checked out, I noticed popcorn under the bed and trash left there. I was too busy working to even have energy to call front desk about this, im glad I left, there are a bunch of black guys that lurk there as early as 9am and wake people up with there loud mouths! This place is trashy I could have dealt with that but the filthiness makes it unbearable!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I am not picky, but if there is trash left in cabinets and dead roaches as well, that is just disgusting, why have a maid if they don't do their job? The first night of my stay I was poked in my foot by what appeared to be a wire spring from the mattress, it was a miracle I got it out myself. If the room was actually cleaned, this would not have happened! When I finally checked out, I noticed popcorn under the bed and trash left there. I was too busy working to even have energy to call front desk about this, im glad I left, there are a bunch of black guys that lurk there as early as 9am and wake people up with there loud mouths! This place is trashy I could have dealt with that but the filthiness makes it unbearable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107993-r425420269-Crossland_Economy_Studios_Houston_West_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425420269</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>Pretty shady characters at this hotel</t>
+  </si>
+  <si>
+    <t>Booked this hotel at the last minute last Monday night. It was about what I expected in the room considering how cheap the price was. Unfortunately as an elderly single female I was a bit unconfortable with the people hanging out on the sidewalk in their lawn chairs as well as the "shady" people hanging out in the parking lot sitting on cars, making tons of noise.Management started calling my room and housekeeping knocking on my door from around 10:00 am on even though check out time is at 11:00 am. I only went from my car to the room and back to my car. Didn't feel safe enough to go enjoy the many restaurants within walking distance.It would be nice if management would clean up the "riff raff" just hanging out on the property.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Booked this hotel at the last minute last Monday night. It was about what I expected in the room considering how cheap the price was. Unfortunately as an elderly single female I was a bit unconfortable with the people hanging out on the sidewalk in their lawn chairs as well as the "shady" people hanging out in the parking lot sitting on cars, making tons of noise.Management started calling my room and housekeeping knocking on my door from around 10:00 am on even though check out time is at 11:00 am. I only went from my car to the room and back to my car. Didn't feel safe enough to go enjoy the many restaurants within walking distance.It would be nice if management would clean up the "riff raff" just hanging out on the property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107993-r341476465-Crossland_Economy_Studios_Houston_West_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341476465</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>listen to the 1 star ratings they are true!</t>
+  </si>
+  <si>
+    <t>don't make the mistake I did and ignore some of the bad reviews of this place. now I'm out the first night's rent. thankfully I have the rest coming back to me. I took one look at the room and left immediately. way outdated furnishings and BLOOD on the bathroom floor. not just little drops that could have been innocently missed, but a pool of blood about the size of a phone with hairs stuck to it that went ignored. completely grossed me out not to mention the heath dangers associated with bodily fluids. please people if you value your health and don't want to lose money on this place do not stay here. I hope the health department steps in and does something. if only I had paused long enough to take photos. next time I'm faced with something like this I will.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>don't make the mistake I did and ignore some of the bad reviews of this place. now I'm out the first night's rent. thankfully I have the rest coming back to me. I took one look at the room and left immediately. way outdated furnishings and BLOOD on the bathroom floor. not just little drops that could have been innocently missed, but a pool of blood about the size of a phone with hairs stuck to it that went ignored. completely grossed me out not to mention the heath dangers associated with bodily fluids. please people if you value your health and don't want to lose money on this place do not stay here. I hope the health department steps in and does something. if only I had paused long enough to take photos. next time I'm faced with something like this I will.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +616,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +648,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36555</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36555</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36555</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_161.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_161.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,10 +147,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/08/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107993-r434469653-Crossland_Economy_Studios_Houston_West_Oaks-Houston_Texas.html</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107993-r549199813-HomeTowne_Studios_Houston_West_Oaks-Houston_Texas.html</t>
   </si>
   <si>
     <t>56003</t>
@@ -159,6 +159,42 @@
     <t>107993</t>
   </si>
   <si>
+    <t>549199813</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>Its ok</t>
+  </si>
+  <si>
+    <t>It's ok for the price. Location is good, lots of places to eat and shop around the hotel. Very very thin walls....you here everything that is going on. They do not supply pots/pans or plates even though they are an extended stay hotel with kitchenettes.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107993-r541709169-HomeTowne_Studios_Houston_West_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541709169</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Nice Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I moved into the grassland suites in March of this year. It was supposed to be for a month but I ended up staying until Sept of this year. My room was clean. My kitchenette and frig was new. And my bathroom was new. I know that this place gets bad reviews but that was not my experience!!! The staff was very nice. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107993-r434469653-HomeTowne_Studios_Houston_West_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
     <t>434469653</t>
   </si>
   <si>
@@ -180,7 +216,7 @@
     <t>I am not picky, but if there is trash left in cabinets and dead roaches as well, that is just disgusting, why have a maid if they don't do their job? The first night of my stay I was poked in my foot by what appeared to be a wire spring from the mattress, it was a miracle I got it out myself. If the room was actually cleaned, this would not have happened! When I finally checked out, I noticed popcorn under the bed and trash left there. I was too busy working to even have energy to call front desk about this, im glad I left, there are a bunch of black guys that lurk there as early as 9am and wake people up with there loud mouths! This place is trashy I could have dealt with that but the filthiness makes it unbearable!More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107993-r425420269-Crossland_Economy_Studios_Houston_West_Oaks-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107993-r425420269-HomeTowne_Studios_Houston_West_Oaks-Houston_Texas.html</t>
   </si>
   <si>
     <t>425420269</t>
@@ -201,7 +237,7 @@
     <t>Booked this hotel at the last minute last Monday night. It was about what I expected in the room considering how cheap the price was. Unfortunately as an elderly single female I was a bit unconfortable with the people hanging out on the sidewalk in their lawn chairs as well as the "shady" people hanging out in the parking lot sitting on cars, making tons of noise.Management started calling my room and housekeeping knocking on my door from around 10:00 am on even though check out time is at 11:00 am. I only went from my car to the room and back to my car. Didn't feel safe enough to go enjoy the many restaurants within walking distance.It would be nice if management would clean up the "riff raff" just hanging out on the property.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107993-r341476465-Crossland_Economy_Studios_Houston_West_Oaks-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107993-r341476465-HomeTowne_Studios_Houston_West_Oaks-Houston_Texas.html</t>
   </si>
   <si>
     <t>341476465</t>
@@ -223,6 +259,21 @@
   </si>
   <si>
     <t>don't make the mistake I did and ignore some of the bad reviews of this place. now I'm out the first night's rent. thankfully I have the rest coming back to me. I took one look at the room and left immediately. way outdated furnishings and BLOOD on the bathroom floor. not just little drops that could have been innocently missed, but a pool of blood about the size of a phone with hairs stuck to it that went ignored. completely grossed me out not to mention the heath dangers associated with bodily fluids. please people if you value your health and don't want to lose money on this place do not stay here. I hope the health department steps in and does something. if only I had paused long enough to take photos. next time I'm faced with something like this I will.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107993-r339007482-HomeTowne_Studios_Houston_West_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339007482</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>The worst!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The worst hotel ever. Horrible management. They didn't want to give a refund. I had to argue with them to give me partial refund for being in the hotel room for least than 30 minutes. The room had stains everywhere: beds floors bathroom etc. Refrigerator was three feet tall. Disgusting. </t>
   </si>
 </sst>
 </file>
@@ -757,7 +808,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -765,23 +816,19 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -797,7 +844,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -806,45 +853,35 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
       <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +897,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -869,37 +906,35 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,7 +942,190 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36555</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
         <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36555</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36555</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
